--- a/progamer.xlsx
+++ b/progamer.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="45" windowWidth="28035" windowHeight="12555" activeTab="1"/>
+    <workbookView xWindow="360" yWindow="45" windowWidth="28035" windowHeight="12555"/>
   </bookViews>
   <sheets>
     <sheet name="프로게이머 명단" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1020" uniqueCount="485">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1023" uniqueCount="488">
   <si>
     <t>PK</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1818,6 +1818,18 @@
   </si>
   <si>
     <t>nVARCHAR2(500)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1988-09-15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1996-01-26</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1992-06-05</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2620,8 +2632,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G120"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="E45" sqref="E45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -3545,7 +3557,9 @@
       <c r="D46" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E46" s="6"/>
+      <c r="E46" s="49" t="s">
+        <v>485</v>
+      </c>
     </row>
     <row r="47" spans="1:7">
       <c r="A47">
@@ -3560,7 +3574,9 @@
       <c r="D47" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="E47" s="6"/>
+      <c r="E47" s="50" t="s">
+        <v>486</v>
+      </c>
     </row>
     <row r="48" spans="1:7">
       <c r="A48">
@@ -3575,7 +3591,9 @@
       <c r="D48" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="E48" s="6"/>
+      <c r="E48" s="50" t="s">
+        <v>487</v>
+      </c>
     </row>
     <row r="49" spans="1:7">
       <c r="A49">
@@ -5040,7 +5058,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>

--- a/progamer.xlsx
+++ b/progamer.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="45" windowWidth="28035" windowHeight="12555"/>
+    <workbookView xWindow="360" yWindow="45" windowWidth="28035" windowHeight="12555" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="프로게이머 명단" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1023" uniqueCount="488">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1138" uniqueCount="690">
   <si>
     <t>PK</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1545,10 +1545,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>이규빈(Bambi)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>2001-03-01</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1817,10 +1813,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>nVARCHAR2(500)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1988-09-15</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1830,6 +1822,821 @@
   </si>
   <si>
     <t>1992-06-05</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Khan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Crazy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Haru</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Clid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Faker</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gori</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Teddy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Leo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Effort</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mata</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Zefa</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kkoma</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cvMax</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sword</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Doran</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tarzan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Chovy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Viper</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lehends</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kabble</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hirai</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Archon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rascal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cuzz</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Naehyun</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pawn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Deft</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tusin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HERO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Micro</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KIM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Nuguri</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Flame</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Canyon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Punch</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ShowMaker</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Nuclear</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Aries</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hoit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BeryL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sally</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dragon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Laden</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Comet</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Summit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Crush</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dove</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OnFleek</t>
+  </si>
+  <si>
+    <t>Justice</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hollow</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ghost</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Joker</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OnAir</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SoHwan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Thal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Moojin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bonO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tempt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lava</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sangyoon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Key</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Edgar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>trAce</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Helper</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>oDin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cuvee</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Roach</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Peanut</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SeongHwan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fly</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kuzan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rich</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ruler</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Life</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Asper</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iloveoov</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NoFe</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>viNylCat</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kiin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Brook</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Spirit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dread</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ucal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SSUN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Aiming</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ssol</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jelly</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Senan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Smeb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kingen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Score</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Umti</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bdd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gango</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Zenit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pray</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SnowFlower</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lindarang</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TaNa</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Malrang</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Seize</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Grace</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CheonGo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Stitch</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Route</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Nova</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kellin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bambi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZanDarK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Noexcuse</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SONSTAR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>H-Dragon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이디</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pg_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nVARCHAR2(1000)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김동하</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김재희</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>강민승</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김태민</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이상혁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김태우</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>박진성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>한겨레</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이상호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>조세형</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최성원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최현준</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이승용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정지훈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>박도현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>손시우</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정상현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김광희</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>문우찬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유내현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>허원석</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김혁규</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>박종익</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김영웅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>장하권</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이호종</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김건부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>손민혁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신정현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이채환</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>류호성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>조건희</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>허 수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>박우태</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김장겸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김준서</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김재연</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>윤석준</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신용진</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>장용준</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>조재읍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김준영</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>박권혁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김무진</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김기범</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>강명구</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김태훈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>권상윤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김한기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이성진</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김강희</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>한왕호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>윤성환</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>송용준</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이성혁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이재원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>박재혁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김정민</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김태기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김기인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이정훈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이다윤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이진혁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>손우현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김태양</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김하람</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서진솔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>손호경</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>박희석</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>송경호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>황성훈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고동빈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>엄성현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>곽보성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>변세훈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전태권</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김종인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>노회종</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>허만흥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이상욱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김근성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김찬희</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이찬주</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최현우</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이승주</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>문검수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>박찬호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김형규</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이규빈</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2630,23 +3437,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G120"/>
+  <dimension ref="A1:H120"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="E45" sqref="E45"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G119" sqref="G119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="2" max="2" width="20.375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.375" customWidth="1"/>
-    <col min="6" max="6" width="53.25" customWidth="1"/>
-    <col min="7" max="7" width="21.875" customWidth="1"/>
+    <col min="4" max="4" width="17.25" customWidth="1"/>
+    <col min="5" max="5" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.375" customWidth="1"/>
+    <col min="7" max="7" width="53.25" customWidth="1"/>
+    <col min="8" max="8" width="21.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2656,21 +3464,21 @@
       <c r="C1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>370</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>168</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
-      <c r="A2">
+    <row r="2" spans="1:8">
+      <c r="A2" s="42">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -2679,14 +3487,17 @@
       <c r="C2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="3" t="s">
+        <v>497</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="50" t="s">
+      <c r="F2" s="50" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:8">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2696,14 +3507,15 @@
       <c r="C3" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="6"/>
+      <c r="E3" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="50" t="s">
+      <c r="F3" s="50" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:8">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2713,14 +3525,17 @@
       <c r="C4" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="6" t="s">
+        <v>496</v>
+      </c>
+      <c r="E4" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="49" t="s">
+      <c r="F4" s="49" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:8">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2728,22 +3543,25 @@
         <v>2</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="7" t="s">
+        <v>601</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>486</v>
+      </c>
+      <c r="E5" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="E5" s="50" t="s">
+      <c r="F5" s="50" t="s">
         <v>386</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>288</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:8">
       <c r="A6">
         <v>5</v>
       </c>
@@ -2751,22 +3569,25 @@
         <v>2</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="7" t="s">
+        <v>602</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>487</v>
+      </c>
+      <c r="E6" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="E6" s="49" t="s">
+      <c r="F6" s="49" t="s">
         <v>387</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>289</v>
       </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:8">
       <c r="A7">
         <v>6</v>
       </c>
@@ -2774,22 +3595,25 @@
         <v>2</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" s="7" t="s">
+        <v>603</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>488</v>
+      </c>
+      <c r="E7" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="E7" s="49" t="s">
+      <c r="F7" s="49" t="s">
         <v>388</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>294</v>
       </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:8">
       <c r="A8">
         <v>7</v>
       </c>
@@ -2797,22 +3621,25 @@
         <v>2</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" s="7" t="s">
+        <v>604</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>489</v>
+      </c>
+      <c r="E8" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="E8" s="49" t="s">
+      <c r="F8" s="49" t="s">
         <v>389</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
         <v>289</v>
       </c>
-      <c r="G8" t="s">
+      <c r="H8" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:8">
       <c r="A9">
         <v>8</v>
       </c>
@@ -2820,22 +3647,25 @@
         <v>2</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9" s="7" t="s">
+        <v>605</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>490</v>
+      </c>
+      <c r="E9" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E9" s="49" t="s">
+      <c r="F9" s="49" t="s">
         <v>390</v>
       </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
         <v>297</v>
       </c>
-      <c r="G9" t="s">
+      <c r="H9" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:8">
       <c r="A10">
         <v>9</v>
       </c>
@@ -2843,16 +3673,19 @@
         <v>2</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D10" s="7" t="s">
+        <v>606</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>491</v>
+      </c>
+      <c r="E10" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E10" s="49" t="s">
+      <c r="F10" s="49" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:8">
       <c r="A11">
         <v>10</v>
       </c>
@@ -2860,22 +3693,25 @@
         <v>2</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D11" s="7" t="s">
+        <v>607</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>492</v>
+      </c>
+      <c r="E11" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="E11" s="49" t="s">
+      <c r="F11" s="49" t="s">
         <v>392</v>
       </c>
-      <c r="F11" t="s">
+      <c r="G11" t="s">
         <v>289</v>
       </c>
-      <c r="G11" t="s">
+      <c r="H11" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:8">
       <c r="A12">
         <v>11</v>
       </c>
@@ -2883,19 +3719,22 @@
         <v>2</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D12" s="7" t="s">
+        <v>608</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>493</v>
+      </c>
+      <c r="E12" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="49" t="s">
+      <c r="F12" s="49" t="s">
         <v>393</v>
       </c>
-      <c r="F12" t="s">
+      <c r="G12" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:8">
       <c r="A13">
         <v>12</v>
       </c>
@@ -2903,19 +3742,22 @@
         <v>2</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D13" s="7" t="s">
+        <v>609</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>494</v>
+      </c>
+      <c r="E13" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="E13" s="49" t="s">
+      <c r="F13" s="49" t="s">
         <v>394</v>
       </c>
-      <c r="F13" t="s">
+      <c r="G13" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="16.5" customHeight="1">
+    <row r="14" spans="1:8" ht="16.5" customHeight="1">
       <c r="A14">
         <v>13</v>
       </c>
@@ -2923,22 +3765,25 @@
         <v>2</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="D14" s="10" t="s">
+        <v>610</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>495</v>
+      </c>
+      <c r="E14" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="E14" s="49" t="s">
+      <c r="F14" s="49" t="s">
         <v>395</v>
       </c>
-      <c r="F14" s="43" t="s">
+      <c r="G14" s="43" t="s">
         <v>300</v>
       </c>
-      <c r="G14" t="s">
+      <c r="H14" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:8">
       <c r="A15">
         <v>14</v>
       </c>
@@ -2948,14 +3793,17 @@
       <c r="C15" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D15" s="4" t="s">
+      <c r="D15" s="3" t="s">
+        <v>498</v>
+      </c>
+      <c r="E15" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E15" s="49" t="s">
+      <c r="F15" s="49" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:8">
       <c r="A16">
         <v>15</v>
       </c>
@@ -2965,12 +3813,13 @@
       <c r="C16" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="D16" s="7" t="s">
+      <c r="D16" s="6"/>
+      <c r="E16" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="E16" s="46"/>
-    </row>
-    <row r="17" spans="1:7">
+      <c r="F16" s="46"/>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17">
         <v>16</v>
       </c>
@@ -2978,19 +3827,22 @@
         <v>25</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D17" s="7" t="s">
+        <v>611</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>499</v>
+      </c>
+      <c r="E17" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="E17" s="50" t="s">
+      <c r="F17" s="50" t="s">
         <v>397</v>
       </c>
-      <c r="F17" t="s">
+      <c r="G17" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:8">
       <c r="A18">
         <v>17</v>
       </c>
@@ -2998,14 +3850,17 @@
         <v>25</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="D18" s="7" t="s">
+        <v>612</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>500</v>
+      </c>
+      <c r="E18" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="E18" s="48"/>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="F18" s="48"/>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19">
         <v>18</v>
       </c>
@@ -3013,19 +3868,22 @@
         <v>25</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="D19" s="7" t="s">
+        <v>613</v>
+      </c>
+      <c r="D19" s="12" t="s">
+        <v>501</v>
+      </c>
+      <c r="E19" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="E19" s="51" t="s">
+      <c r="F19" s="51" t="s">
         <v>398</v>
       </c>
-      <c r="F19" t="s">
+      <c r="G19" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:8">
       <c r="A20">
         <v>19</v>
       </c>
@@ -3033,19 +3891,22 @@
         <v>25</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="D20" s="7" t="s">
+        <v>614</v>
+      </c>
+      <c r="D20" s="12" t="s">
+        <v>502</v>
+      </c>
+      <c r="E20" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E20" s="49" t="s">
+      <c r="F20" s="49" t="s">
         <v>399</v>
       </c>
-      <c r="F20" t="s">
+      <c r="G20" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:8">
       <c r="A21">
         <v>20</v>
       </c>
@@ -3053,19 +3914,22 @@
         <v>25</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="D21" s="7" t="s">
+        <v>615</v>
+      </c>
+      <c r="D21" s="12" t="s">
+        <v>503</v>
+      </c>
+      <c r="E21" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="E21" s="49" t="s">
+      <c r="F21" s="49" t="s">
         <v>400</v>
       </c>
-      <c r="F21" t="s">
+      <c r="G21" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:8">
       <c r="A22">
         <v>21</v>
       </c>
@@ -3073,22 +3937,25 @@
         <v>25</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="D22" s="7" t="s">
+        <v>616</v>
+      </c>
+      <c r="D22" s="12" t="s">
+        <v>504</v>
+      </c>
+      <c r="E22" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="E22" s="49" t="s">
+      <c r="F22" s="49" t="s">
         <v>401</v>
       </c>
-      <c r="F22" t="s">
+      <c r="G22" t="s">
         <v>302</v>
       </c>
-      <c r="G22" t="s">
+      <c r="H22" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:8">
       <c r="A23">
         <v>22</v>
       </c>
@@ -3096,19 +3963,22 @@
         <v>25</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="D23" s="10" t="s">
+        <v>617</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>505</v>
+      </c>
+      <c r="E23" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="E23" s="49" t="s">
+      <c r="F23" s="49" t="s">
         <v>402</v>
       </c>
-      <c r="F23" t="s">
+      <c r="G23" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:8">
       <c r="A24">
         <v>23</v>
       </c>
@@ -3118,14 +3988,17 @@
       <c r="C24" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="D24" s="4" t="s">
+      <c r="D24" s="3" t="s">
+        <v>506</v>
+      </c>
+      <c r="E24" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E24" s="45" t="s">
+      <c r="F24" s="45" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:8">
       <c r="A25">
         <v>24</v>
       </c>
@@ -3135,20 +4008,23 @@
       <c r="C25" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="D25" s="7" t="s">
+      <c r="D25" s="12" t="s">
+        <v>507</v>
+      </c>
+      <c r="E25" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="E25" s="49" t="s">
+      <c r="F25" s="49" t="s">
         <v>403</v>
       </c>
-      <c r="F25" t="s">
+      <c r="G25" t="s">
         <v>305</v>
       </c>
-      <c r="G25" t="s">
+      <c r="H25" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:8">
       <c r="A26">
         <v>25</v>
       </c>
@@ -3158,11 +4034,12 @@
       <c r="C26" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="D26" s="7" t="s">
+      <c r="D26" s="6"/>
+      <c r="E26" s="7" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:8">
       <c r="A27">
         <v>26</v>
       </c>
@@ -3170,19 +4047,22 @@
         <v>35</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="D27" s="7" t="s">
+        <v>618</v>
+      </c>
+      <c r="D27" s="12" t="s">
+        <v>508</v>
+      </c>
+      <c r="E27" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="E27" s="49" t="s">
+      <c r="F27" s="49" t="s">
         <v>404</v>
       </c>
-      <c r="F27" t="s">
+      <c r="G27" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:8">
       <c r="A28">
         <v>27</v>
       </c>
@@ -3190,19 +4070,22 @@
         <v>35</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="D28" s="7" t="s">
+        <v>619</v>
+      </c>
+      <c r="D28" s="12" t="s">
+        <v>509</v>
+      </c>
+      <c r="E28" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="E28" s="49" t="s">
+      <c r="F28" s="49" t="s">
         <v>405</v>
       </c>
-      <c r="F28" t="s">
+      <c r="G28" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:8">
       <c r="A29">
         <v>28</v>
       </c>
@@ -3210,19 +4093,22 @@
         <v>35</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="D29" s="7" t="s">
+        <v>620</v>
+      </c>
+      <c r="D29" s="12" t="s">
+        <v>510</v>
+      </c>
+      <c r="E29" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E29" s="49" t="s">
+      <c r="F29" s="49" t="s">
         <v>406</v>
       </c>
-      <c r="G29" t="s">
+      <c r="H29" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:8">
       <c r="A30">
         <v>29</v>
       </c>
@@ -3230,22 +4116,25 @@
         <v>35</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="D30" s="7" t="s">
+        <v>621</v>
+      </c>
+      <c r="D30" s="12" t="s">
+        <v>511</v>
+      </c>
+      <c r="E30" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E30" s="49" t="s">
+      <c r="F30" s="49" t="s">
         <v>407</v>
       </c>
-      <c r="F30" t="s">
+      <c r="G30" t="s">
         <v>308</v>
       </c>
-      <c r="G30" t="s">
+      <c r="H30" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" spans="1:8">
       <c r="A31">
         <v>30</v>
       </c>
@@ -3253,22 +4142,25 @@
         <v>35</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="D31" s="7" t="s">
+        <v>622</v>
+      </c>
+      <c r="D31" s="12" t="s">
+        <v>512</v>
+      </c>
+      <c r="E31" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="E31" s="49" t="s">
+      <c r="F31" s="49" t="s">
         <v>408</v>
       </c>
-      <c r="F31" t="s">
+      <c r="G31" t="s">
         <v>310</v>
       </c>
-      <c r="G31" t="s">
+      <c r="H31" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="32" spans="1:7">
+    <row r="32" spans="1:8">
       <c r="A32">
         <v>31</v>
       </c>
@@ -3276,19 +4168,22 @@
         <v>35</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="D32" s="7" t="s">
+        <v>623</v>
+      </c>
+      <c r="D32" s="12" t="s">
+        <v>513</v>
+      </c>
+      <c r="E32" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="E32" s="49" t="s">
+      <c r="F32" s="49" t="s">
         <v>409</v>
       </c>
-      <c r="G32" t="s">
+      <c r="H32" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="33" spans="1:7">
+    <row r="33" spans="1:8">
       <c r="A33">
         <v>32</v>
       </c>
@@ -3296,14 +4191,17 @@
         <v>35</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="D33" s="10" t="s">
+        <v>624</v>
+      </c>
+      <c r="D33" s="9" t="s">
+        <v>514</v>
+      </c>
+      <c r="E33" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="E33" s="6"/>
-    </row>
-    <row r="34" spans="1:7">
+      <c r="F33" s="6"/>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34">
         <v>33</v>
       </c>
@@ -3313,14 +4211,17 @@
       <c r="C34" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="D34" s="4" t="s">
+      <c r="D34" s="3" t="s">
+        <v>515</v>
+      </c>
+      <c r="E34" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E34" s="49" t="s">
+      <c r="F34" s="49" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="35" spans="1:7">
+    <row r="35" spans="1:8">
       <c r="A35">
         <v>34</v>
       </c>
@@ -3330,12 +4231,12 @@
       <c r="C35" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="D35" s="7" t="s">
+      <c r="E35" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="E35" s="6"/>
-    </row>
-    <row r="36" spans="1:7">
+      <c r="F35" s="6"/>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36">
         <v>35</v>
       </c>
@@ -3345,17 +4246,20 @@
       <c r="C36" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="D36" s="7" t="s">
+      <c r="D36" s="12" t="s">
+        <v>516</v>
+      </c>
+      <c r="E36" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="E36" s="49" t="s">
+      <c r="F36" s="49" t="s">
         <v>411</v>
       </c>
-      <c r="G36" t="s">
+      <c r="H36" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="37" spans="1:7">
+    <row r="37" spans="1:8">
       <c r="A37">
         <v>36</v>
       </c>
@@ -3363,22 +4267,25 @@
         <v>46</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="D37" s="7" t="s">
+        <v>625</v>
+      </c>
+      <c r="D37" s="12" t="s">
+        <v>517</v>
+      </c>
+      <c r="E37" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="E37" s="49" t="s">
+      <c r="F37" s="49" t="s">
         <v>412</v>
       </c>
-      <c r="F37" t="s">
+      <c r="G37" t="s">
         <v>313</v>
       </c>
-      <c r="G37" t="s">
+      <c r="H37" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="38" spans="1:7">
+    <row r="38" spans="1:8">
       <c r="A38">
         <v>37</v>
       </c>
@@ -3386,22 +4293,25 @@
         <v>46</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="D38" s="7" t="s">
+        <v>626</v>
+      </c>
+      <c r="D38" s="12" t="s">
+        <v>518</v>
+      </c>
+      <c r="E38" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="E38" s="49" t="s">
+      <c r="F38" s="49" t="s">
         <v>382</v>
       </c>
-      <c r="F38" t="s">
+      <c r="G38" t="s">
         <v>315</v>
       </c>
-      <c r="G38" t="s">
+      <c r="H38" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="39" spans="1:7">
+    <row r="39" spans="1:8">
       <c r="A39">
         <v>38</v>
       </c>
@@ -3409,16 +4319,19 @@
         <v>46</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="D39" s="7" t="s">
+        <v>627</v>
+      </c>
+      <c r="D39" s="12" t="s">
+        <v>519</v>
+      </c>
+      <c r="E39" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="E39" s="49" t="s">
+      <c r="F39" s="49" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="40" spans="1:7">
+    <row r="40" spans="1:8">
       <c r="A40">
         <v>39</v>
       </c>
@@ -3426,22 +4339,25 @@
         <v>46</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="D40" s="7" t="s">
+        <v>628</v>
+      </c>
+      <c r="D40" s="12" t="s">
+        <v>520</v>
+      </c>
+      <c r="E40" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="E40" s="49" t="s">
+      <c r="F40" s="49" t="s">
         <v>380</v>
       </c>
-      <c r="F40" t="s">
+      <c r="G40" t="s">
         <v>318</v>
       </c>
-      <c r="G40" t="s">
+      <c r="H40" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="41" spans="1:7">
+    <row r="41" spans="1:8">
       <c r="A41">
         <v>40</v>
       </c>
@@ -3449,19 +4365,22 @@
         <v>46</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="D41" s="7" t="s">
+        <v>633</v>
+      </c>
+      <c r="D41" s="12" t="s">
+        <v>521</v>
+      </c>
+      <c r="E41" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E41" s="49" t="s">
+      <c r="F41" s="49" t="s">
         <v>379</v>
       </c>
-      <c r="F41" t="s">
+      <c r="G41" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="42" spans="1:7">
+    <row r="42" spans="1:8">
       <c r="A42">
         <v>41</v>
       </c>
@@ -3469,22 +4388,25 @@
         <v>46</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="D42" s="7" t="s">
+        <v>629</v>
+      </c>
+      <c r="D42" s="12" t="s">
+        <v>522</v>
+      </c>
+      <c r="E42" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="E42" s="49" t="s">
+      <c r="F42" s="49" t="s">
         <v>378</v>
       </c>
-      <c r="F42" t="s">
+      <c r="G42" t="s">
         <v>313</v>
       </c>
-      <c r="G42" t="s">
+      <c r="H42" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="43" spans="1:7">
+    <row r="43" spans="1:8">
       <c r="A43">
         <v>42</v>
       </c>
@@ -3492,19 +4414,22 @@
         <v>46</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="D43" s="7" t="s">
+        <v>630</v>
+      </c>
+      <c r="D43" s="12" t="s">
+        <v>523</v>
+      </c>
+      <c r="E43" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="E43" s="49" t="s">
+      <c r="F43" s="49" t="s">
         <v>377</v>
       </c>
-      <c r="G43" t="s">
+      <c r="H43" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="44" spans="1:7">
+    <row r="44" spans="1:8">
       <c r="A44">
         <v>43</v>
       </c>
@@ -3512,19 +4437,22 @@
         <v>46</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="D44" s="7" t="s">
+        <v>631</v>
+      </c>
+      <c r="D44" s="12" t="s">
+        <v>524</v>
+      </c>
+      <c r="E44" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="E44" s="49" t="s">
+      <c r="F44" s="49" t="s">
         <v>376</v>
       </c>
-      <c r="F44" t="s">
+      <c r="G44" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="45" spans="1:7">
+    <row r="45" spans="1:8">
       <c r="A45">
         <v>44</v>
       </c>
@@ -3532,19 +4460,22 @@
         <v>46</v>
       </c>
       <c r="C45" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="D45" s="10" t="s">
+        <v>632</v>
+      </c>
+      <c r="D45" s="9" t="s">
+        <v>525</v>
+      </c>
+      <c r="E45" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="E45" s="49" t="s">
+      <c r="F45" s="49" t="s">
         <v>375</v>
       </c>
-      <c r="F45" t="s">
+      <c r="G45" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="46" spans="1:7">
+    <row r="46" spans="1:8">
       <c r="A46">
         <v>45</v>
       </c>
@@ -3554,14 +4485,17 @@
       <c r="C46" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="D46" s="4" t="s">
+      <c r="D46" s="3" t="s">
+        <v>526</v>
+      </c>
+      <c r="E46" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E46" s="49" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
+      <c r="F46" s="49" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47">
         <v>46</v>
       </c>
@@ -3571,14 +4505,17 @@
       <c r="C47" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="D47" s="7" t="s">
+      <c r="D47" s="12" t="s">
+        <v>527</v>
+      </c>
+      <c r="E47" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="E47" s="50" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
+      <c r="F47" s="50" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48">
         <v>47</v>
       </c>
@@ -3588,14 +4525,17 @@
       <c r="C48" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="D48" s="7" t="s">
+      <c r="D48" s="12" t="s">
+        <v>528</v>
+      </c>
+      <c r="E48" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="E48" s="50" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7">
+      <c r="F48" s="50" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49">
         <v>48</v>
       </c>
@@ -3605,12 +4545,15 @@
       <c r="C49" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="D49" s="7" t="s">
+      <c r="D49" s="12" t="s">
+        <v>529</v>
+      </c>
+      <c r="E49" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="E49" s="6"/>
-    </row>
-    <row r="50" spans="1:7">
+      <c r="F49" s="6"/>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50">
         <v>49</v>
       </c>
@@ -3618,19 +4561,22 @@
         <v>59</v>
       </c>
       <c r="C50" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="D50" s="7" t="s">
+        <v>634</v>
+      </c>
+      <c r="D50" s="12" t="s">
+        <v>530</v>
+      </c>
+      <c r="E50" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="E50" s="50" t="s">
+      <c r="F50" s="50" t="s">
         <v>415</v>
       </c>
-      <c r="G50" t="s">
+      <c r="H50" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="51" spans="1:7">
+    <row r="51" spans="1:8">
       <c r="A51">
         <v>50</v>
       </c>
@@ -3638,16 +4584,19 @@
         <v>59</v>
       </c>
       <c r="C51" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="D51" s="7" t="s">
+        <v>635</v>
+      </c>
+      <c r="D51" s="12" t="s">
+        <v>533</v>
+      </c>
+      <c r="E51" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="E51" s="50" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7">
+      <c r="F51" s="50" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52">
         <v>51</v>
       </c>
@@ -3655,22 +4604,25 @@
         <v>59</v>
       </c>
       <c r="C52" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="D52" s="7" t="s">
+        <v>636</v>
+      </c>
+      <c r="D52" s="12" t="s">
+        <v>531</v>
+      </c>
+      <c r="E52" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="E52" s="50" t="s">
-        <v>426</v>
-      </c>
-      <c r="F52" t="s">
+      <c r="F52" s="50" t="s">
+        <v>425</v>
+      </c>
+      <c r="G52" t="s">
         <v>317</v>
       </c>
-      <c r="G52" t="s">
+      <c r="H52" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="53" spans="1:7">
+    <row r="53" spans="1:8">
       <c r="A53">
         <v>52</v>
       </c>
@@ -3678,19 +4630,22 @@
         <v>59</v>
       </c>
       <c r="C53" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="D53" s="7" t="s">
+        <v>637</v>
+      </c>
+      <c r="D53" s="12" t="s">
+        <v>532</v>
+      </c>
+      <c r="E53" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E53" s="49" t="s">
-        <v>427</v>
-      </c>
-      <c r="G53" t="s">
+      <c r="F53" s="49" t="s">
+        <v>426</v>
+      </c>
+      <c r="H53" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="54" spans="1:7">
+    <row r="54" spans="1:8">
       <c r="A54">
         <v>53</v>
       </c>
@@ -3698,22 +4653,25 @@
         <v>59</v>
       </c>
       <c r="C54" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="D54" s="7" t="s">
+        <v>638</v>
+      </c>
+      <c r="D54" s="12" t="s">
+        <v>534</v>
+      </c>
+      <c r="E54" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E54" s="49" t="s">
-        <v>428</v>
-      </c>
-      <c r="F54" t="s">
+      <c r="F54" s="49" t="s">
+        <v>427</v>
+      </c>
+      <c r="G54" t="s">
         <v>286</v>
       </c>
-      <c r="G54" t="s">
+      <c r="H54" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="55" spans="1:7">
+    <row r="55" spans="1:8">
       <c r="A55">
         <v>54</v>
       </c>
@@ -3721,19 +4679,22 @@
         <v>59</v>
       </c>
       <c r="C55" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="D55" s="7" t="s">
+        <v>639</v>
+      </c>
+      <c r="D55" s="12" t="s">
+        <v>535</v>
+      </c>
+      <c r="E55" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="E55" s="49" t="s">
-        <v>429</v>
-      </c>
-      <c r="G55" t="s">
+      <c r="F55" s="49" t="s">
+        <v>428</v>
+      </c>
+      <c r="H55" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="56" spans="1:7">
+    <row r="56" spans="1:8">
       <c r="A56">
         <v>55</v>
       </c>
@@ -3741,19 +4702,22 @@
         <v>59</v>
       </c>
       <c r="C56" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="D56" s="7" t="s">
+        <v>640</v>
+      </c>
+      <c r="D56" s="12" t="s">
+        <v>536</v>
+      </c>
+      <c r="E56" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="E56" s="49" t="s">
-        <v>430</v>
-      </c>
-      <c r="G56" t="s">
+      <c r="F56" s="49" t="s">
+        <v>429</v>
+      </c>
+      <c r="H56" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="57" spans="1:7">
+    <row r="57" spans="1:8">
       <c r="A57">
         <v>56</v>
       </c>
@@ -3761,16 +4725,19 @@
         <v>59</v>
       </c>
       <c r="C57" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="D57" s="10" t="s">
+        <v>641</v>
+      </c>
+      <c r="D57" s="9" t="s">
+        <v>537</v>
+      </c>
+      <c r="E57" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="E57" s="49" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7">
+      <c r="F57" s="49" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58">
         <v>57</v>
       </c>
@@ -3780,17 +4747,20 @@
       <c r="C58" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="D58" s="16" t="s">
+      <c r="D58" s="15" t="s">
+        <v>538</v>
+      </c>
+      <c r="E58" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="E58" s="49" t="s">
-        <v>432</v>
-      </c>
-      <c r="G58" t="s">
+      <c r="F58" s="49" t="s">
+        <v>431</v>
+      </c>
+      <c r="H58" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="59" spans="1:7">
+    <row r="59" spans="1:8">
       <c r="A59">
         <v>58</v>
       </c>
@@ -3800,12 +4770,13 @@
       <c r="C59" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="D59" s="13" t="s">
+      <c r="D59" s="12"/>
+      <c r="E59" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="E59" s="12"/>
-    </row>
-    <row r="60" spans="1:7">
+      <c r="F59" s="12"/>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60">
         <v>59</v>
       </c>
@@ -3813,19 +4784,22 @@
         <v>72</v>
       </c>
       <c r="C60" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="D60" s="13" t="s">
+        <v>642</v>
+      </c>
+      <c r="D60" s="12" t="s">
+        <v>539</v>
+      </c>
+      <c r="E60" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="E60" s="49" t="s">
-        <v>433</v>
-      </c>
-      <c r="G60" t="s">
+      <c r="F60" s="49" t="s">
+        <v>432</v>
+      </c>
+      <c r="H60" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="61" spans="1:7">
+    <row r="61" spans="1:8">
       <c r="A61">
         <v>60</v>
       </c>
@@ -3833,19 +4807,22 @@
         <v>72</v>
       </c>
       <c r="C61" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="D61" s="13" t="s">
+        <v>643</v>
+      </c>
+      <c r="D61" s="12" t="s">
+        <v>540</v>
+      </c>
+      <c r="E61" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="E61" s="49" t="s">
-        <v>434</v>
-      </c>
-      <c r="G61" t="s">
+      <c r="F61" s="49" t="s">
+        <v>433</v>
+      </c>
+      <c r="H61" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="62" spans="1:7">
+    <row r="62" spans="1:8">
       <c r="A62">
         <v>61</v>
       </c>
@@ -3853,22 +4830,25 @@
         <v>72</v>
       </c>
       <c r="C62" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="D62" s="13" t="s">
+        <v>644</v>
+      </c>
+      <c r="D62" s="12" t="s">
+        <v>541</v>
+      </c>
+      <c r="E62" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="E62" s="49" t="s">
-        <v>435</v>
-      </c>
-      <c r="F62" t="s">
+      <c r="F62" s="49" t="s">
+        <v>434</v>
+      </c>
+      <c r="G62" t="s">
         <v>324</v>
       </c>
-      <c r="G62" t="s">
+      <c r="H62" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="63" spans="1:7">
+    <row r="63" spans="1:8">
       <c r="A63">
         <v>62</v>
       </c>
@@ -3876,19 +4856,22 @@
         <v>72</v>
       </c>
       <c r="C63" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="D63" s="13" t="s">
+        <v>645</v>
+      </c>
+      <c r="D63" s="12" t="s">
+        <v>542</v>
+      </c>
+      <c r="E63" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="E63" s="49" t="s">
-        <v>436</v>
-      </c>
-      <c r="G63" t="s">
+      <c r="F63" s="49" t="s">
+        <v>435</v>
+      </c>
+      <c r="H63" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="64" spans="1:7">
+    <row r="64" spans="1:8">
       <c r="A64">
         <v>63</v>
       </c>
@@ -3896,22 +4879,25 @@
         <v>72</v>
       </c>
       <c r="C64" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="D64" s="13" t="s">
+        <v>646</v>
+      </c>
+      <c r="D64" s="12" t="s">
+        <v>543</v>
+      </c>
+      <c r="E64" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="E64" s="49" t="s">
-        <v>437</v>
-      </c>
-      <c r="F64" t="s">
+      <c r="F64" s="49" t="s">
+        <v>436</v>
+      </c>
+      <c r="G64" t="s">
         <v>327</v>
       </c>
-      <c r="G64" t="s">
+      <c r="H64" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="65" spans="1:7">
+    <row r="65" spans="1:8">
       <c r="A65">
         <v>64</v>
       </c>
@@ -3919,19 +4905,22 @@
         <v>72</v>
       </c>
       <c r="C65" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="D65" s="13" t="s">
+        <v>647</v>
+      </c>
+      <c r="D65" s="12" t="s">
+        <v>544</v>
+      </c>
+      <c r="E65" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="E65" s="49" t="s">
-        <v>438</v>
-      </c>
-      <c r="G65" t="s">
+      <c r="F65" s="49" t="s">
+        <v>437</v>
+      </c>
+      <c r="H65" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="66" spans="1:7">
+    <row r="66" spans="1:8">
       <c r="A66">
         <v>65</v>
       </c>
@@ -3939,22 +4928,25 @@
         <v>72</v>
       </c>
       <c r="C66" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="D66" s="13" t="s">
+        <v>648</v>
+      </c>
+      <c r="D66" s="12" t="s">
+        <v>545</v>
+      </c>
+      <c r="E66" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="E66" s="49" t="s">
-        <v>439</v>
-      </c>
-      <c r="F66" t="s">
+      <c r="F66" s="49" t="s">
+        <v>438</v>
+      </c>
+      <c r="G66" t="s">
         <v>328</v>
       </c>
-      <c r="G66" t="s">
+      <c r="H66" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="67" spans="1:7">
+    <row r="67" spans="1:8">
       <c r="A67">
         <v>66</v>
       </c>
@@ -3962,22 +4954,25 @@
         <v>72</v>
       </c>
       <c r="C67" s="18" t="s">
-        <v>82</v>
-      </c>
-      <c r="D67" s="19" t="s">
+        <v>649</v>
+      </c>
+      <c r="D67" s="18" t="s">
+        <v>546</v>
+      </c>
+      <c r="E67" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="E67" s="49" t="s">
-        <v>440</v>
-      </c>
-      <c r="F67" t="s">
+      <c r="F67" s="49" t="s">
+        <v>439</v>
+      </c>
+      <c r="G67" t="s">
         <v>329</v>
       </c>
-      <c r="G67" t="s">
+      <c r="H67" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="68" spans="1:7">
+    <row r="68" spans="1:8">
       <c r="A68">
         <v>67</v>
       </c>
@@ -3987,14 +4982,17 @@
       <c r="C68" s="15" t="s">
         <v>84</v>
       </c>
-      <c r="D68" s="16" t="s">
+      <c r="D68" s="15" t="s">
+        <v>547</v>
+      </c>
+      <c r="E68" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="E68" s="49" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7">
+      <c r="F68" s="49" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69">
         <v>68</v>
       </c>
@@ -4004,14 +5002,17 @@
       <c r="C69" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="D69" s="13" t="s">
+      <c r="D69" s="12" t="s">
+        <v>550</v>
+      </c>
+      <c r="E69" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="E69" s="49" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7">
+      <c r="F69" s="49" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70">
         <v>69</v>
       </c>
@@ -4021,20 +5022,23 @@
       <c r="C70" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="D70" s="13" t="s">
+      <c r="D70" s="12" t="s">
+        <v>548</v>
+      </c>
+      <c r="E70" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="E70" s="49" t="s">
-        <v>443</v>
-      </c>
-      <c r="F70" t="s">
+      <c r="F70" s="49" t="s">
+        <v>442</v>
+      </c>
+      <c r="G70" t="s">
         <v>331</v>
       </c>
-      <c r="G70" t="s">
+      <c r="H70" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="71" spans="1:7">
+    <row r="71" spans="1:8">
       <c r="A71">
         <v>70</v>
       </c>
@@ -4044,17 +5048,20 @@
       <c r="C71" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="D71" s="13" t="s">
+      <c r="D71" s="12" t="s">
+        <v>549</v>
+      </c>
+      <c r="E71" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="E71" s="49" t="s">
-        <v>444</v>
-      </c>
-      <c r="G71" t="s">
+      <c r="F71" s="49" t="s">
+        <v>443</v>
+      </c>
+      <c r="H71" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="72" spans="1:7">
+    <row r="72" spans="1:8">
       <c r="A72">
         <v>71</v>
       </c>
@@ -4062,19 +5069,22 @@
         <v>83</v>
       </c>
       <c r="C72" s="12" t="s">
-        <v>88</v>
-      </c>
-      <c r="D72" s="13" t="s">
+        <v>650</v>
+      </c>
+      <c r="D72" s="12" t="s">
+        <v>551</v>
+      </c>
+      <c r="E72" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="E72" s="49" t="s">
-        <v>445</v>
-      </c>
-      <c r="F72" t="s">
+      <c r="F72" s="49" t="s">
+        <v>444</v>
+      </c>
+      <c r="G72" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="73" spans="1:7">
+    <row r="73" spans="1:8">
       <c r="A73">
         <v>72</v>
       </c>
@@ -4082,22 +5092,25 @@
         <v>83</v>
       </c>
       <c r="C73" s="12" t="s">
-        <v>334</v>
-      </c>
-      <c r="D73" s="13" t="s">
+        <v>651</v>
+      </c>
+      <c r="D73" s="12" t="s">
+        <v>552</v>
+      </c>
+      <c r="E73" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="E73" s="49" t="s">
-        <v>446</v>
-      </c>
-      <c r="F73" t="s">
+      <c r="F73" s="49" t="s">
+        <v>445</v>
+      </c>
+      <c r="G73" t="s">
         <v>317</v>
       </c>
-      <c r="G73" t="s">
+      <c r="H73" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="74" spans="1:7">
+    <row r="74" spans="1:8">
       <c r="A74">
         <v>73</v>
       </c>
@@ -4105,22 +5118,25 @@
         <v>83</v>
       </c>
       <c r="C74" s="12" t="s">
-        <v>89</v>
-      </c>
-      <c r="D74" s="13" t="s">
+        <v>652</v>
+      </c>
+      <c r="D74" s="12" t="s">
+        <v>553</v>
+      </c>
+      <c r="E74" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="E74" s="49" t="s">
-        <v>447</v>
-      </c>
-      <c r="F74" t="s">
+      <c r="F74" s="49" t="s">
+        <v>446</v>
+      </c>
+      <c r="G74" t="s">
         <v>335</v>
       </c>
-      <c r="G74" t="s">
+      <c r="H74" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="75" spans="1:7">
+    <row r="75" spans="1:8">
       <c r="A75">
         <v>74</v>
       </c>
@@ -4128,19 +5144,22 @@
         <v>83</v>
       </c>
       <c r="C75" s="12" t="s">
-        <v>90</v>
-      </c>
-      <c r="D75" s="13" t="s">
+        <v>653</v>
+      </c>
+      <c r="D75" s="12" t="s">
+        <v>554</v>
+      </c>
+      <c r="E75" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="E75" s="49" t="s">
-        <v>448</v>
-      </c>
-      <c r="G75" t="s">
+      <c r="F75" s="49" t="s">
+        <v>447</v>
+      </c>
+      <c r="H75" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="76" spans="1:7">
+    <row r="76" spans="1:8">
       <c r="A76">
         <v>75</v>
       </c>
@@ -4148,22 +5167,25 @@
         <v>83</v>
       </c>
       <c r="C76" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="D76" s="13" t="s">
+        <v>654</v>
+      </c>
+      <c r="D76" s="12" t="s">
+        <v>555</v>
+      </c>
+      <c r="E76" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="E76" s="49" t="s">
-        <v>449</v>
-      </c>
-      <c r="F76" t="s">
+      <c r="F76" s="49" t="s">
+        <v>448</v>
+      </c>
+      <c r="G76" t="s">
         <v>337</v>
       </c>
-      <c r="G76" t="s">
+      <c r="H76" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="77" spans="1:7">
+    <row r="77" spans="1:8">
       <c r="A77">
         <v>76</v>
       </c>
@@ -4171,22 +5193,25 @@
         <v>83</v>
       </c>
       <c r="C77" s="12" t="s">
-        <v>92</v>
-      </c>
-      <c r="D77" s="13" t="s">
+        <v>655</v>
+      </c>
+      <c r="D77" s="12" t="s">
+        <v>556</v>
+      </c>
+      <c r="E77" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="E77" s="49" t="s">
-        <v>450</v>
-      </c>
-      <c r="F77" t="s">
+      <c r="F77" s="49" t="s">
+        <v>449</v>
+      </c>
+      <c r="G77" t="s">
         <v>338</v>
       </c>
-      <c r="G77" t="s">
+      <c r="H77" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="78" spans="1:7">
+    <row r="78" spans="1:8">
       <c r="A78">
         <v>77</v>
       </c>
@@ -4194,19 +5219,22 @@
         <v>83</v>
       </c>
       <c r="C78" s="12" t="s">
-        <v>93</v>
-      </c>
-      <c r="D78" s="13" t="s">
+        <v>656</v>
+      </c>
+      <c r="D78" s="12" t="s">
+        <v>557</v>
+      </c>
+      <c r="E78" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="E78" s="49" t="s">
-        <v>451</v>
-      </c>
-      <c r="F78" t="s">
+      <c r="F78" s="49" t="s">
+        <v>450</v>
+      </c>
+      <c r="G78" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="79" spans="1:7">
+    <row r="79" spans="1:8">
       <c r="A79">
         <v>78</v>
       </c>
@@ -4214,22 +5242,25 @@
         <v>83</v>
       </c>
       <c r="C79" s="12" t="s">
-        <v>94</v>
-      </c>
-      <c r="D79" s="13" t="s">
+        <v>657</v>
+      </c>
+      <c r="D79" s="12" t="s">
+        <v>558</v>
+      </c>
+      <c r="E79" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="E79" s="49" t="s">
-        <v>452</v>
-      </c>
-      <c r="F79" t="s">
+      <c r="F79" s="49" t="s">
+        <v>451</v>
+      </c>
+      <c r="G79" t="s">
         <v>333</v>
       </c>
-      <c r="G79" t="s">
+      <c r="H79" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="80" spans="1:7">
+    <row r="80" spans="1:8">
       <c r="A80">
         <v>79</v>
       </c>
@@ -4237,16 +5268,19 @@
         <v>83</v>
       </c>
       <c r="C80" s="12" t="s">
-        <v>95</v>
-      </c>
-      <c r="D80" s="13" t="s">
+        <v>658</v>
+      </c>
+      <c r="D80" s="12" t="s">
+        <v>559</v>
+      </c>
+      <c r="E80" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="E80" s="49" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7">
+      <c r="F80" s="49" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81">
         <v>80</v>
       </c>
@@ -4254,19 +5288,22 @@
         <v>83</v>
       </c>
       <c r="C81" s="18" t="s">
-        <v>96</v>
-      </c>
-      <c r="D81" s="19" t="s">
+        <v>659</v>
+      </c>
+      <c r="D81" s="18" t="s">
+        <v>560</v>
+      </c>
+      <c r="E81" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="E81" s="49" t="s">
-        <v>454</v>
-      </c>
-      <c r="G81" t="s">
+      <c r="F81" s="49" t="s">
+        <v>453</v>
+      </c>
+      <c r="H81" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="82" spans="1:7">
+    <row r="82" spans="1:8">
       <c r="A82">
         <v>81</v>
       </c>
@@ -4276,17 +5313,20 @@
       <c r="C82" s="15" t="s">
         <v>98</v>
       </c>
-      <c r="D82" s="16" t="s">
+      <c r="D82" s="15" t="s">
+        <v>561</v>
+      </c>
+      <c r="E82" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="E82" s="49" t="s">
-        <v>455</v>
-      </c>
-      <c r="F82" t="s">
+      <c r="F82" s="49" t="s">
+        <v>454</v>
+      </c>
+      <c r="G82" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="83" spans="1:7">
+    <row r="83" spans="1:8">
       <c r="A83">
         <v>82</v>
       </c>
@@ -4296,17 +5336,20 @@
       <c r="C83" s="12" t="s">
         <v>99</v>
       </c>
-      <c r="D83" s="13" t="s">
+      <c r="D83" s="12" t="s">
+        <v>562</v>
+      </c>
+      <c r="E83" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="E83" s="49" t="s">
-        <v>456</v>
-      </c>
-      <c r="G83" t="s">
+      <c r="F83" s="49" t="s">
+        <v>455</v>
+      </c>
+      <c r="H83" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="84" spans="1:7">
+    <row r="84" spans="1:8">
       <c r="A84">
         <v>83</v>
       </c>
@@ -4316,17 +5359,20 @@
       <c r="C84" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="D84" s="13" t="s">
+      <c r="D84" s="12" t="s">
+        <v>563</v>
+      </c>
+      <c r="E84" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="E84" s="49" t="s">
-        <v>457</v>
-      </c>
-      <c r="G84" t="s">
+      <c r="F84" s="49" t="s">
+        <v>456</v>
+      </c>
+      <c r="H84" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="85" spans="1:7">
+    <row r="85" spans="1:8">
       <c r="A85">
         <v>84</v>
       </c>
@@ -4334,22 +5380,25 @@
         <v>97</v>
       </c>
       <c r="C85" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="D85" s="13" t="s">
+        <v>660</v>
+      </c>
+      <c r="D85" s="12" t="s">
+        <v>564</v>
+      </c>
+      <c r="E85" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="E85" s="49" t="s">
-        <v>458</v>
-      </c>
-      <c r="F85" t="s">
+      <c r="F85" s="49" t="s">
+        <v>457</v>
+      </c>
+      <c r="G85" t="s">
         <v>345</v>
       </c>
-      <c r="G85" t="s">
+      <c r="H85" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="86" spans="1:7">
+    <row r="86" spans="1:8">
       <c r="A86">
         <v>85</v>
       </c>
@@ -4357,19 +5406,22 @@
         <v>97</v>
       </c>
       <c r="C86" s="12" t="s">
-        <v>102</v>
-      </c>
-      <c r="D86" s="13" t="s">
+        <v>661</v>
+      </c>
+      <c r="D86" s="12" t="s">
+        <v>565</v>
+      </c>
+      <c r="E86" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="E86" s="49" t="s">
-        <v>459</v>
-      </c>
-      <c r="G86" t="s">
+      <c r="F86" s="49" t="s">
+        <v>458</v>
+      </c>
+      <c r="H86" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="87" spans="1:7">
+    <row r="87" spans="1:8">
       <c r="A87">
         <v>86</v>
       </c>
@@ -4377,22 +5429,25 @@
         <v>97</v>
       </c>
       <c r="C87" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="D87" s="13" t="s">
+        <v>662</v>
+      </c>
+      <c r="D87" s="12" t="s">
+        <v>566</v>
+      </c>
+      <c r="E87" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="E87" s="49" t="s">
-        <v>460</v>
-      </c>
-      <c r="F87" t="s">
+      <c r="F87" s="49" t="s">
+        <v>459</v>
+      </c>
+      <c r="G87" t="s">
         <v>346</v>
       </c>
-      <c r="G87" t="s">
+      <c r="H87" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="88" spans="1:7">
+    <row r="88" spans="1:8">
       <c r="A88">
         <v>87</v>
       </c>
@@ -4400,19 +5455,22 @@
         <v>97</v>
       </c>
       <c r="C88" s="12" t="s">
-        <v>104</v>
-      </c>
-      <c r="D88" s="13" t="s">
+        <v>663</v>
+      </c>
+      <c r="D88" s="12" t="s">
+        <v>567</v>
+      </c>
+      <c r="E88" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="E88" s="49" t="s">
-        <v>461</v>
-      </c>
-      <c r="G88" t="s">
+      <c r="F88" s="49" t="s">
+        <v>460</v>
+      </c>
+      <c r="H88" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="89" spans="1:7">
+    <row r="89" spans="1:8">
       <c r="A89">
         <v>88</v>
       </c>
@@ -4420,22 +5478,25 @@
         <v>97</v>
       </c>
       <c r="C89" s="12" t="s">
-        <v>105</v>
-      </c>
-      <c r="D89" s="13" t="s">
+        <v>664</v>
+      </c>
+      <c r="D89" s="12" t="s">
+        <v>568</v>
+      </c>
+      <c r="E89" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="E89" s="49" t="s">
-        <v>462</v>
-      </c>
-      <c r="F89" t="s">
+      <c r="F89" s="49" t="s">
+        <v>461</v>
+      </c>
+      <c r="G89" t="s">
         <v>348</v>
       </c>
-      <c r="G89" t="s">
+      <c r="H89" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="90" spans="1:7">
+    <row r="90" spans="1:8">
       <c r="A90">
         <v>89</v>
       </c>
@@ -4443,19 +5504,22 @@
         <v>97</v>
       </c>
       <c r="C90" s="12" t="s">
-        <v>106</v>
-      </c>
-      <c r="D90" s="13" t="s">
+        <v>665</v>
+      </c>
+      <c r="D90" s="12" t="s">
+        <v>569</v>
+      </c>
+      <c r="E90" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="E90" s="49" t="s">
-        <v>463</v>
-      </c>
-      <c r="G90" t="s">
+      <c r="F90" s="49" t="s">
+        <v>462</v>
+      </c>
+      <c r="H90" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="91" spans="1:7">
+    <row r="91" spans="1:8">
       <c r="A91">
         <v>90</v>
       </c>
@@ -4463,19 +5527,22 @@
         <v>97</v>
       </c>
       <c r="C91" s="12" t="s">
-        <v>107</v>
-      </c>
-      <c r="D91" s="13" t="s">
+        <v>666</v>
+      </c>
+      <c r="D91" s="12" t="s">
+        <v>570</v>
+      </c>
+      <c r="E91" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="E91" s="49" t="s">
-        <v>464</v>
-      </c>
-      <c r="G91" t="s">
+      <c r="F91" s="49" t="s">
+        <v>463</v>
+      </c>
+      <c r="H91" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="92" spans="1:7">
+    <row r="92" spans="1:8">
       <c r="A92">
         <v>91</v>
       </c>
@@ -4483,22 +5550,25 @@
         <v>97</v>
       </c>
       <c r="C92" s="12" t="s">
-        <v>108</v>
-      </c>
-      <c r="D92" s="13" t="s">
+        <v>667</v>
+      </c>
+      <c r="D92" s="12" t="s">
+        <v>571</v>
+      </c>
+      <c r="E92" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="E92" s="49" t="s">
-        <v>465</v>
-      </c>
-      <c r="F92" t="s">
+      <c r="F92" s="49" t="s">
+        <v>464</v>
+      </c>
+      <c r="G92" t="s">
         <v>317</v>
       </c>
-      <c r="G92" t="s">
+      <c r="H92" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="93" spans="1:7">
+    <row r="93" spans="1:8">
       <c r="A93">
         <v>92</v>
       </c>
@@ -4506,19 +5576,22 @@
         <v>97</v>
       </c>
       <c r="C93" s="12" t="s">
-        <v>109</v>
-      </c>
-      <c r="D93" s="13" t="s">
+        <v>668</v>
+      </c>
+      <c r="D93" s="12" t="s">
+        <v>572</v>
+      </c>
+      <c r="E93" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="E93" s="49" t="s">
-        <v>466</v>
-      </c>
-      <c r="G93" t="s">
+      <c r="F93" s="49" t="s">
+        <v>465</v>
+      </c>
+      <c r="H93" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="94" spans="1:7">
+    <row r="94" spans="1:8">
       <c r="A94">
         <v>93</v>
       </c>
@@ -4526,16 +5599,19 @@
         <v>97</v>
       </c>
       <c r="C94" s="18" t="s">
-        <v>110</v>
-      </c>
-      <c r="D94" s="19" t="s">
+        <v>669</v>
+      </c>
+      <c r="D94" s="18" t="s">
+        <v>573</v>
+      </c>
+      <c r="E94" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="E94" s="49" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7">
+      <c r="F94" s="49" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95">
         <v>94</v>
       </c>
@@ -4545,14 +5621,17 @@
       <c r="C95" s="15" t="s">
         <v>111</v>
       </c>
-      <c r="D95" s="16" t="s">
+      <c r="D95" s="15" t="s">
+        <v>594</v>
+      </c>
+      <c r="E95" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="E95" s="49" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7">
+      <c r="F95" s="49" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96">
         <v>95</v>
       </c>
@@ -4562,17 +5641,20 @@
       <c r="C96" s="12" t="s">
         <v>112</v>
       </c>
-      <c r="D96" s="13" t="s">
+      <c r="D96" s="12" t="s">
+        <v>595</v>
+      </c>
+      <c r="E96" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="E96" s="49" t="s">
-        <v>469</v>
-      </c>
-      <c r="G96" t="s">
+      <c r="F96" s="49" t="s">
+        <v>468</v>
+      </c>
+      <c r="H96" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="97" spans="1:7">
+    <row r="97" spans="1:8">
       <c r="A97">
         <v>96</v>
       </c>
@@ -4582,17 +5664,20 @@
       <c r="C97" s="12" t="s">
         <v>113</v>
       </c>
-      <c r="D97" s="13" t="s">
+      <c r="D97" s="12" t="s">
+        <v>596</v>
+      </c>
+      <c r="E97" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="E97" s="49" t="s">
-        <v>470</v>
-      </c>
-      <c r="G97" t="s">
+      <c r="F97" s="49" t="s">
+        <v>469</v>
+      </c>
+      <c r="H97" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="98" spans="1:7">
+    <row r="98" spans="1:8">
       <c r="A98">
         <v>97</v>
       </c>
@@ -4600,22 +5685,25 @@
         <v>123</v>
       </c>
       <c r="C98" s="12" t="s">
-        <v>114</v>
-      </c>
-      <c r="D98" s="13" t="s">
+        <v>670</v>
+      </c>
+      <c r="D98" s="12" t="s">
+        <v>574</v>
+      </c>
+      <c r="E98" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="E98" s="49" t="s">
-        <v>471</v>
-      </c>
-      <c r="F98" t="s">
+      <c r="F98" s="49" t="s">
+        <v>470</v>
+      </c>
+      <c r="G98" t="s">
         <v>352</v>
       </c>
-      <c r="G98" t="s">
+      <c r="H98" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="99" spans="1:7">
+    <row r="99" spans="1:8">
       <c r="A99">
         <v>98</v>
       </c>
@@ -4623,22 +5711,25 @@
         <v>123</v>
       </c>
       <c r="C99" s="12" t="s">
-        <v>115</v>
-      </c>
-      <c r="D99" s="13" t="s">
+        <v>671</v>
+      </c>
+      <c r="D99" s="12" t="s">
+        <v>575</v>
+      </c>
+      <c r="E99" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="E99" s="49" t="s">
-        <v>472</v>
-      </c>
-      <c r="F99" t="s">
+      <c r="F99" s="49" t="s">
+        <v>471</v>
+      </c>
+      <c r="G99" t="s">
         <v>348</v>
       </c>
-      <c r="G99" t="s">
+      <c r="H99" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="100" spans="1:7">
+    <row r="100" spans="1:8">
       <c r="A100">
         <v>99</v>
       </c>
@@ -4646,22 +5737,25 @@
         <v>123</v>
       </c>
       <c r="C100" s="12" t="s">
-        <v>116</v>
-      </c>
-      <c r="D100" s="13" t="s">
+        <v>672</v>
+      </c>
+      <c r="D100" s="12" t="s">
+        <v>576</v>
+      </c>
+      <c r="E100" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="E100" s="49" t="s">
-        <v>473</v>
-      </c>
-      <c r="F100" t="s">
+      <c r="F100" s="49" t="s">
+        <v>472</v>
+      </c>
+      <c r="G100" t="s">
         <v>355</v>
       </c>
-      <c r="G100" t="s">
+      <c r="H100" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="101" spans="1:7">
+    <row r="101" spans="1:8">
       <c r="A101">
         <v>100</v>
       </c>
@@ -4669,19 +5763,22 @@
         <v>123</v>
       </c>
       <c r="C101" s="12" t="s">
-        <v>117</v>
-      </c>
-      <c r="D101" s="13" t="s">
+        <v>673</v>
+      </c>
+      <c r="D101" s="12" t="s">
+        <v>577</v>
+      </c>
+      <c r="E101" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="E101" s="49" t="s">
-        <v>474</v>
-      </c>
-      <c r="G101" t="s">
+      <c r="F101" s="49" t="s">
+        <v>473</v>
+      </c>
+      <c r="H101" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="102" spans="1:7">
+    <row r="102" spans="1:8">
       <c r="A102">
         <v>101</v>
       </c>
@@ -4689,22 +5786,25 @@
         <v>123</v>
       </c>
       <c r="C102" s="12" t="s">
-        <v>118</v>
-      </c>
-      <c r="D102" s="13" t="s">
+        <v>674</v>
+      </c>
+      <c r="D102" s="12" t="s">
+        <v>578</v>
+      </c>
+      <c r="E102" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="E102" s="49" t="s">
-        <v>475</v>
-      </c>
-      <c r="F102" t="s">
+      <c r="F102" s="49" t="s">
+        <v>474</v>
+      </c>
+      <c r="G102" t="s">
         <v>287</v>
       </c>
-      <c r="G102" t="s">
+      <c r="H102" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="103" spans="1:7">
+    <row r="103" spans="1:8">
       <c r="A103">
         <v>102</v>
       </c>
@@ -4712,19 +5812,22 @@
         <v>123</v>
       </c>
       <c r="C103" s="12" t="s">
-        <v>119</v>
-      </c>
-      <c r="D103" s="13" t="s">
+        <v>675</v>
+      </c>
+      <c r="D103" s="12" t="s">
+        <v>579</v>
+      </c>
+      <c r="E103" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="E103" s="49" t="s">
-        <v>476</v>
-      </c>
-      <c r="G103" t="s">
+      <c r="F103" s="49" t="s">
+        <v>475</v>
+      </c>
+      <c r="H103" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="104" spans="1:7">
+    <row r="104" spans="1:8">
       <c r="A104">
         <v>103</v>
       </c>
@@ -4732,19 +5835,22 @@
         <v>123</v>
       </c>
       <c r="C104" s="12" t="s">
-        <v>120</v>
-      </c>
-      <c r="D104" s="13" t="s">
+        <v>676</v>
+      </c>
+      <c r="D104" s="12" t="s">
+        <v>580</v>
+      </c>
+      <c r="E104" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="E104" s="49" t="s">
-        <v>477</v>
-      </c>
-      <c r="G104" t="s">
+      <c r="F104" s="49" t="s">
+        <v>476</v>
+      </c>
+      <c r="H104" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="105" spans="1:7">
+    <row r="105" spans="1:8">
       <c r="A105">
         <v>104</v>
       </c>
@@ -4752,22 +5858,25 @@
         <v>123</v>
       </c>
       <c r="C105" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="D105" s="13" t="s">
+        <v>677</v>
+      </c>
+      <c r="D105" s="12" t="s">
+        <v>581</v>
+      </c>
+      <c r="E105" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="E105" s="49" t="s">
-        <v>478</v>
-      </c>
-      <c r="F105" t="s">
+      <c r="F105" s="49" t="s">
+        <v>477</v>
+      </c>
+      <c r="G105" t="s">
         <v>358</v>
       </c>
-      <c r="G105" t="s">
+      <c r="H105" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="106" spans="1:7">
+    <row r="106" spans="1:8">
       <c r="A106">
         <v>105</v>
       </c>
@@ -4775,22 +5884,25 @@
         <v>123</v>
       </c>
       <c r="C106" s="18" t="s">
-        <v>122</v>
-      </c>
-      <c r="D106" s="19" t="s">
+        <v>678</v>
+      </c>
+      <c r="D106" s="18" t="s">
+        <v>582</v>
+      </c>
+      <c r="E106" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="E106" s="49" t="s">
-        <v>479</v>
-      </c>
-      <c r="F106" t="s">
+      <c r="F106" s="49" t="s">
+        <v>478</v>
+      </c>
+      <c r="G106" t="s">
         <v>359</v>
       </c>
-      <c r="G106" t="s">
+      <c r="H106" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="107" spans="1:7">
+    <row r="107" spans="1:8">
       <c r="A107">
         <v>106</v>
       </c>
@@ -4800,14 +5912,17 @@
       <c r="C107" s="15" t="s">
         <v>124</v>
       </c>
-      <c r="D107" s="16" t="s">
+      <c r="D107" s="15" t="s">
+        <v>597</v>
+      </c>
+      <c r="E107" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="E107" s="49" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="108" spans="1:7">
+      <c r="F107" s="49" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8">
       <c r="A108">
         <v>107</v>
       </c>
@@ -4817,11 +5932,12 @@
       <c r="C108" s="12" t="s">
         <v>125</v>
       </c>
-      <c r="D108" s="13" t="s">
+      <c r="D108" s="12"/>
+      <c r="E108" s="13" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="109" spans="1:7">
+    <row r="109" spans="1:8">
       <c r="A109">
         <v>108</v>
       </c>
@@ -4831,12 +5947,13 @@
       <c r="C109" s="12" t="s">
         <v>126</v>
       </c>
-      <c r="D109" s="13" t="s">
+      <c r="D109" s="12"/>
+      <c r="E109" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="E109" s="12"/>
-    </row>
-    <row r="110" spans="1:7">
+      <c r="F109" s="12"/>
+    </row>
+    <row r="110" spans="1:8">
       <c r="A110">
         <v>109</v>
       </c>
@@ -4844,19 +5961,22 @@
         <v>137</v>
       </c>
       <c r="C110" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="D110" s="13" t="s">
+        <v>679</v>
+      </c>
+      <c r="D110" s="12" t="s">
+        <v>583</v>
+      </c>
+      <c r="E110" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="E110" s="49" t="s">
-        <v>424</v>
-      </c>
-      <c r="G110" t="s">
+      <c r="F110" s="49" t="s">
+        <v>423</v>
+      </c>
+      <c r="H110" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="111" spans="1:7">
+    <row r="111" spans="1:8">
       <c r="A111">
         <v>110</v>
       </c>
@@ -4864,19 +5984,22 @@
         <v>137</v>
       </c>
       <c r="C111" s="12" t="s">
-        <v>128</v>
-      </c>
-      <c r="D111" s="13" t="s">
+        <v>680</v>
+      </c>
+      <c r="D111" s="12" t="s">
+        <v>584</v>
+      </c>
+      <c r="E111" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="E111" s="49" t="s">
-        <v>423</v>
-      </c>
-      <c r="G111" t="s">
+      <c r="F111" s="49" t="s">
+        <v>422</v>
+      </c>
+      <c r="H111" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="112" spans="1:7">
+    <row r="112" spans="1:8">
       <c r="A112">
         <v>111</v>
       </c>
@@ -4884,19 +6007,22 @@
         <v>137</v>
       </c>
       <c r="C112" s="12" t="s">
-        <v>129</v>
-      </c>
-      <c r="D112" s="13" t="s">
+        <v>681</v>
+      </c>
+      <c r="D112" s="12" t="s">
+        <v>585</v>
+      </c>
+      <c r="E112" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="E112" s="49" t="s">
-        <v>422</v>
-      </c>
-      <c r="G112" t="s">
+      <c r="F112" s="49" t="s">
+        <v>421</v>
+      </c>
+      <c r="H112" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="113" spans="1:7">
+    <row r="113" spans="1:8">
       <c r="A113">
         <v>112</v>
       </c>
@@ -4904,16 +6030,19 @@
         <v>137</v>
       </c>
       <c r="C113" s="12" t="s">
-        <v>130</v>
-      </c>
-      <c r="D113" s="13" t="s">
+        <v>682</v>
+      </c>
+      <c r="D113" s="12" t="s">
+        <v>586</v>
+      </c>
+      <c r="E113" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="E113" s="49" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="114" spans="1:7">
+      <c r="F113" s="49" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8">
       <c r="A114">
         <v>113</v>
       </c>
@@ -4921,19 +6050,22 @@
         <v>137</v>
       </c>
       <c r="C114" s="12" t="s">
-        <v>131</v>
-      </c>
-      <c r="D114" s="13" t="s">
+        <v>683</v>
+      </c>
+      <c r="D114" s="12" t="s">
+        <v>587</v>
+      </c>
+      <c r="E114" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="E114" s="49" t="s">
-        <v>420</v>
-      </c>
-      <c r="G114" t="s">
+      <c r="F114" s="49" t="s">
+        <v>419</v>
+      </c>
+      <c r="H114" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="115" spans="1:7">
+    <row r="115" spans="1:8">
       <c r="A115">
         <v>114</v>
       </c>
@@ -4941,19 +6073,22 @@
         <v>137</v>
       </c>
       <c r="C115" s="12" t="s">
-        <v>132</v>
-      </c>
-      <c r="D115" s="13" t="s">
+        <v>684</v>
+      </c>
+      <c r="D115" s="12" t="s">
+        <v>588</v>
+      </c>
+      <c r="E115" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="E115" s="49" t="s">
-        <v>419</v>
-      </c>
-      <c r="G115" t="s">
+      <c r="F115" s="49" t="s">
+        <v>418</v>
+      </c>
+      <c r="H115" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="116" spans="1:7">
+    <row r="116" spans="1:8">
       <c r="A116">
         <v>115</v>
       </c>
@@ -4961,19 +6096,22 @@
         <v>137</v>
       </c>
       <c r="C116" s="12" t="s">
-        <v>133</v>
-      </c>
-      <c r="D116" s="13" t="s">
+        <v>685</v>
+      </c>
+      <c r="D116" s="12" t="s">
+        <v>589</v>
+      </c>
+      <c r="E116" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="E116" s="49" t="s">
-        <v>418</v>
-      </c>
-      <c r="G116" t="s">
+      <c r="F116" s="49" t="s">
+        <v>417</v>
+      </c>
+      <c r="H116" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="117" spans="1:7">
+    <row r="117" spans="1:8">
       <c r="A117">
         <v>116</v>
       </c>
@@ -4981,19 +6119,22 @@
         <v>137</v>
       </c>
       <c r="C117" s="12" t="s">
-        <v>134</v>
-      </c>
-      <c r="D117" s="13" t="s">
+        <v>686</v>
+      </c>
+      <c r="D117" s="12" t="s">
+        <v>590</v>
+      </c>
+      <c r="E117" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="E117" s="44" t="s">
+      <c r="F117" s="44" t="s">
         <v>413</v>
       </c>
-      <c r="G117" t="s">
+      <c r="H117" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="118" spans="1:7">
+    <row r="118" spans="1:8">
       <c r="A118">
         <v>117</v>
       </c>
@@ -5001,19 +6142,22 @@
         <v>137</v>
       </c>
       <c r="C118" s="12" t="s">
-        <v>135</v>
-      </c>
-      <c r="D118" s="13" t="s">
+        <v>687</v>
+      </c>
+      <c r="D118" s="12" t="s">
+        <v>591</v>
+      </c>
+      <c r="E118" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="E118" s="44" t="s">
+      <c r="F118" s="44" t="s">
         <v>414</v>
       </c>
-      <c r="G118" t="s">
+      <c r="H118" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="119" spans="1:7">
+    <row r="119" spans="1:8">
       <c r="A119">
         <v>118</v>
       </c>
@@ -5021,16 +6165,19 @@
         <v>137</v>
       </c>
       <c r="C119" s="18" t="s">
-        <v>136</v>
-      </c>
-      <c r="D119" s="19" t="s">
+        <v>688</v>
+      </c>
+      <c r="D119" s="18" t="s">
+        <v>592</v>
+      </c>
+      <c r="E119" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="E119" s="45" t="s">
+      <c r="F119" s="45" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="120" spans="1:7">
+    <row r="120" spans="1:8">
       <c r="A120">
         <v>119</v>
       </c>
@@ -5038,13 +6185,16 @@
         <v>137</v>
       </c>
       <c r="C120" s="12" t="s">
+        <v>689</v>
+      </c>
+      <c r="D120" s="12" t="s">
+        <v>593</v>
+      </c>
+      <c r="E120" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="F120" s="51" t="s">
         <v>416</v>
-      </c>
-      <c r="D120" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="E120" s="51" t="s">
-        <v>417</v>
       </c>
     </row>
   </sheetData>
@@ -5058,8 +6208,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -5119,7 +6269,7 @@
         <v>158</v>
       </c>
       <c r="E2" s="24" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="F2" s="25" t="s">
         <v>162</v>
@@ -5142,7 +6292,7 @@
         <v>159</v>
       </c>
       <c r="E3" s="28" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="F3" s="29"/>
       <c r="G3" s="29" t="s">
@@ -5163,7 +6313,7 @@
         <v>160</v>
       </c>
       <c r="E4" s="32" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="F4" s="33"/>
       <c r="G4" s="29" t="s">
@@ -5177,19 +6327,17 @@
     <row r="5" spans="1:11">
       <c r="A5" s="31"/>
       <c r="B5" s="32" t="s">
-        <v>156</v>
+        <v>598</v>
       </c>
       <c r="C5" s="32"/>
       <c r="D5" s="32" t="s">
-        <v>161</v>
+        <v>599</v>
       </c>
       <c r="E5" s="32" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="F5" s="33"/>
-      <c r="G5" s="29" t="s">
-        <v>163</v>
-      </c>
+      <c r="G5" s="29"/>
       <c r="H5" s="33"/>
       <c r="I5" s="33"/>
       <c r="J5" s="33"/>
@@ -5198,17 +6346,19 @@
     <row r="6" spans="1:11">
       <c r="A6" s="31"/>
       <c r="B6" s="32" t="s">
-        <v>370</v>
+        <v>156</v>
       </c>
       <c r="C6" s="32"/>
       <c r="D6" s="32" t="s">
-        <v>371</v>
+        <v>161</v>
       </c>
       <c r="E6" s="32" t="s">
         <v>482</v>
       </c>
       <c r="F6" s="33"/>
-      <c r="G6" s="33"/>
+      <c r="G6" s="29" t="s">
+        <v>163</v>
+      </c>
       <c r="H6" s="33"/>
       <c r="I6" s="33"/>
       <c r="J6" s="33"/>
@@ -5217,14 +6367,14 @@
     <row r="7" spans="1:11">
       <c r="A7" s="31"/>
       <c r="B7" s="32" t="s">
-        <v>167</v>
+        <v>370</v>
       </c>
       <c r="C7" s="32"/>
       <c r="D7" s="32" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="E7" s="32" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="F7" s="33"/>
       <c r="G7" s="33"/>
@@ -5236,14 +6386,14 @@
     <row r="8" spans="1:11">
       <c r="A8" s="31"/>
       <c r="B8" s="32" t="s">
-        <v>290</v>
+        <v>167</v>
       </c>
       <c r="C8" s="32"/>
       <c r="D8" s="32" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E8" s="32" t="s">
-        <v>483</v>
+        <v>600</v>
       </c>
       <c r="F8" s="33"/>
       <c r="G8" s="33"/>
@@ -5254,10 +6404,16 @@
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="31"/>
-      <c r="B9" s="32"/>
+      <c r="B9" s="32" t="s">
+        <v>290</v>
+      </c>
       <c r="C9" s="32"/>
-      <c r="D9" s="32"/>
-      <c r="E9" s="32"/>
+      <c r="D9" s="32" t="s">
+        <v>373</v>
+      </c>
+      <c r="E9" s="32" t="s">
+        <v>482</v>
+      </c>
       <c r="F9" s="33"/>
       <c r="G9" s="33"/>
       <c r="H9" s="33"/>

--- a/progamer.xlsx
+++ b/progamer.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1261" uniqueCount="802">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1261" uniqueCount="803">
   <si>
     <t>PK</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2945,22 +2945,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Aiming</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>SSol.png</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Jelly</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Senan</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>오창종.png</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3086,6 +3074,22 @@
   </si>
   <si>
     <t>Jin_Air_Greenwings</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hanwha_Life_Esports</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Aiming.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jelly.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Senan.png</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3882,8 +3886,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I120"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="D115" sqref="D115"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -3928,7 +3932,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>793</v>
+        <v>790</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>4</v>
@@ -3951,7 +3955,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>793</v>
+        <v>790</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>5</v>
@@ -3972,7 +3976,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>793</v>
+        <v>790</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>6</v>
@@ -3995,7 +3999,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>793</v>
+        <v>790</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>591</v>
@@ -4024,7 +4028,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>793</v>
+        <v>790</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>592</v>
@@ -4053,7 +4057,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>793</v>
+        <v>790</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>593</v>
@@ -4082,7 +4086,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>793</v>
+        <v>790</v>
       </c>
       <c r="C8" s="6" t="s">
         <v>594</v>
@@ -4111,7 +4115,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>793</v>
+        <v>790</v>
       </c>
       <c r="C9" s="6" t="s">
         <v>595</v>
@@ -4127,9 +4131,6 @@
       </c>
       <c r="G9" t="s">
         <v>287</v>
-      </c>
-      <c r="H9" t="s">
-        <v>288</v>
       </c>
       <c r="I9" t="s">
         <v>690</v>
@@ -4140,7 +4141,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>793</v>
+        <v>790</v>
       </c>
       <c r="C10" s="6" t="s">
         <v>596</v>
@@ -4153,6 +4154,9 @@
       </c>
       <c r="F10" s="47" t="s">
         <v>381</v>
+      </c>
+      <c r="H10" t="s">
+        <v>288</v>
       </c>
       <c r="I10" t="s">
         <v>691</v>
@@ -4163,7 +4167,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>793</v>
+        <v>790</v>
       </c>
       <c r="C11" s="6" t="s">
         <v>597</v>
@@ -4192,7 +4196,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>793</v>
+        <v>790</v>
       </c>
       <c r="C12" s="6" t="s">
         <v>598</v>
@@ -4218,7 +4222,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>793</v>
+        <v>790</v>
       </c>
       <c r="C13" s="6" t="s">
         <v>599</v>
@@ -4244,7 +4248,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>793</v>
+        <v>790</v>
       </c>
       <c r="C14" s="9" t="s">
         <v>600</v>
@@ -4495,7 +4499,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>794</v>
+        <v>791</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>34</v>
@@ -4518,7 +4522,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>794</v>
+        <v>791</v>
       </c>
       <c r="C25" s="6" t="s">
         <v>35</v>
@@ -4547,7 +4551,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>794</v>
+        <v>791</v>
       </c>
       <c r="C26" s="6" t="s">
         <v>36</v>
@@ -4565,7 +4569,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>794</v>
+        <v>791</v>
       </c>
       <c r="C27" s="6" t="s">
         <v>608</v>
@@ -4591,7 +4595,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>794</v>
+        <v>791</v>
       </c>
       <c r="C28" s="6" t="s">
         <v>609</v>
@@ -4617,7 +4621,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>794</v>
+        <v>791</v>
       </c>
       <c r="C29" s="6" t="s">
         <v>610</v>
@@ -4643,7 +4647,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>794</v>
+        <v>791</v>
       </c>
       <c r="C30" s="6" t="s">
         <v>611</v>
@@ -4672,7 +4676,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>794</v>
+        <v>791</v>
       </c>
       <c r="C31" s="6" t="s">
         <v>612</v>
@@ -4701,7 +4705,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>794</v>
+        <v>791</v>
       </c>
       <c r="C32" s="6" t="s">
         <v>613</v>
@@ -4727,7 +4731,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>794</v>
+        <v>791</v>
       </c>
       <c r="C33" s="9" t="s">
         <v>614</v>
@@ -4748,7 +4752,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>795</v>
+        <v>792</v>
       </c>
       <c r="C34" s="3" t="s">
         <v>44</v>
@@ -4771,7 +4775,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>795</v>
+        <v>792</v>
       </c>
       <c r="C35" s="6" t="s">
         <v>45</v>
@@ -4789,7 +4793,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>795</v>
+        <v>792</v>
       </c>
       <c r="C36" s="6" t="s">
         <v>46</v>
@@ -4815,7 +4819,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>795</v>
+        <v>792</v>
       </c>
       <c r="C37" s="6" t="s">
         <v>615</v>
@@ -4844,7 +4848,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>795</v>
+        <v>792</v>
       </c>
       <c r="C38" s="6" t="s">
         <v>616</v>
@@ -4873,7 +4877,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>795</v>
+        <v>792</v>
       </c>
       <c r="C39" s="6" t="s">
         <v>617</v>
@@ -4896,7 +4900,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>795</v>
+        <v>792</v>
       </c>
       <c r="C40" s="6" t="s">
         <v>618</v>
@@ -4925,7 +4929,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>795</v>
+        <v>792</v>
       </c>
       <c r="C41" s="6" t="s">
         <v>623</v>
@@ -4951,7 +4955,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>795</v>
+        <v>792</v>
       </c>
       <c r="C42" s="6" t="s">
         <v>619</v>
@@ -4980,7 +4984,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>795</v>
+        <v>792</v>
       </c>
       <c r="C43" s="6" t="s">
         <v>620</v>
@@ -5006,7 +5010,7 @@
         <v>43</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>795</v>
+        <v>792</v>
       </c>
       <c r="C44" s="6" t="s">
         <v>621</v>
@@ -5032,7 +5036,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>795</v>
+        <v>792</v>
       </c>
       <c r="C45" s="9" t="s">
         <v>622</v>
@@ -5058,7 +5062,7 @@
         <v>45</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>796</v>
+        <v>793</v>
       </c>
       <c r="C46" s="3" t="s">
         <v>56</v>
@@ -5081,7 +5085,7 @@
         <v>46</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>796</v>
+        <v>793</v>
       </c>
       <c r="C47" s="6" t="s">
         <v>57</v>
@@ -5104,7 +5108,7 @@
         <v>47</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>796</v>
+        <v>793</v>
       </c>
       <c r="C48" s="6" t="s">
         <v>58</v>
@@ -5127,7 +5131,7 @@
         <v>48</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>796</v>
+        <v>793</v>
       </c>
       <c r="C49" s="6" t="s">
         <v>59</v>
@@ -5148,7 +5152,7 @@
         <v>49</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>796</v>
+        <v>793</v>
       </c>
       <c r="C50" s="6" t="s">
         <v>624</v>
@@ -5174,7 +5178,7 @@
         <v>50</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>796</v>
+        <v>793</v>
       </c>
       <c r="C51" s="6" t="s">
         <v>625</v>
@@ -5197,7 +5201,7 @@
         <v>51</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>796</v>
+        <v>793</v>
       </c>
       <c r="C52" s="6" t="s">
         <v>626</v>
@@ -5226,7 +5230,7 @@
         <v>52</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>796</v>
+        <v>793</v>
       </c>
       <c r="C53" s="6" t="s">
         <v>627</v>
@@ -5252,7 +5256,7 @@
         <v>53</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>796</v>
+        <v>793</v>
       </c>
       <c r="C54" s="6" t="s">
         <v>628</v>
@@ -5281,7 +5285,7 @@
         <v>54</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>796</v>
+        <v>793</v>
       </c>
       <c r="C55" s="6" t="s">
         <v>629</v>
@@ -5307,7 +5311,7 @@
         <v>55</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>796</v>
+        <v>793</v>
       </c>
       <c r="C56" s="6" t="s">
         <v>630</v>
@@ -5333,7 +5337,7 @@
         <v>56</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>796</v>
+        <v>793</v>
       </c>
       <c r="C57" s="9" t="s">
         <v>631</v>
@@ -5356,7 +5360,7 @@
         <v>57</v>
       </c>
       <c r="B58" s="13" t="s">
-        <v>797</v>
+        <v>799</v>
       </c>
       <c r="C58" s="14" t="s">
         <v>68</v>
@@ -5382,7 +5386,7 @@
         <v>58</v>
       </c>
       <c r="B59" s="13" t="s">
-        <v>797</v>
+        <v>794</v>
       </c>
       <c r="C59" s="11" t="s">
         <v>69</v>
@@ -5401,7 +5405,7 @@
         <v>59</v>
       </c>
       <c r="B60" s="13" t="s">
-        <v>797</v>
+        <v>794</v>
       </c>
       <c r="C60" s="11" t="s">
         <v>632</v>
@@ -5427,7 +5431,7 @@
         <v>60</v>
       </c>
       <c r="B61" s="13" t="s">
-        <v>797</v>
+        <v>794</v>
       </c>
       <c r="C61" s="11" t="s">
         <v>633</v>
@@ -5453,7 +5457,7 @@
         <v>61</v>
       </c>
       <c r="B62" s="13" t="s">
-        <v>797</v>
+        <v>794</v>
       </c>
       <c r="C62" s="11" t="s">
         <v>634</v>
@@ -5482,7 +5486,7 @@
         <v>62</v>
       </c>
       <c r="B63" s="13" t="s">
-        <v>797</v>
+        <v>794</v>
       </c>
       <c r="C63" s="11" t="s">
         <v>635</v>
@@ -5508,7 +5512,7 @@
         <v>63</v>
       </c>
       <c r="B64" s="13" t="s">
-        <v>797</v>
+        <v>794</v>
       </c>
       <c r="C64" s="11" t="s">
         <v>636</v>
@@ -5537,7 +5541,7 @@
         <v>64</v>
       </c>
       <c r="B65" s="13" t="s">
-        <v>797</v>
+        <v>794</v>
       </c>
       <c r="C65" s="11" t="s">
         <v>637</v>
@@ -5563,7 +5567,7 @@
         <v>65</v>
       </c>
       <c r="B66" s="13" t="s">
-        <v>797</v>
+        <v>794</v>
       </c>
       <c r="C66" s="11" t="s">
         <v>638</v>
@@ -5592,7 +5596,7 @@
         <v>66</v>
       </c>
       <c r="B67" s="13" t="s">
-        <v>797</v>
+        <v>794</v>
       </c>
       <c r="C67" s="16" t="s">
         <v>639</v>
@@ -5621,7 +5625,7 @@
         <v>67</v>
       </c>
       <c r="B68" s="13" t="s">
-        <v>798</v>
+        <v>795</v>
       </c>
       <c r="C68" s="14" t="s">
         <v>78</v>
@@ -5644,7 +5648,7 @@
         <v>68</v>
       </c>
       <c r="B69" s="13" t="s">
-        <v>798</v>
+        <v>795</v>
       </c>
       <c r="C69" s="11" t="s">
         <v>79</v>
@@ -5667,7 +5671,7 @@
         <v>69</v>
       </c>
       <c r="B70" s="13" t="s">
-        <v>798</v>
+        <v>795</v>
       </c>
       <c r="C70" s="11" t="s">
         <v>80</v>
@@ -5696,7 +5700,7 @@
         <v>70</v>
       </c>
       <c r="B71" s="13" t="s">
-        <v>798</v>
+        <v>795</v>
       </c>
       <c r="C71" s="11" t="s">
         <v>81</v>
@@ -5722,7 +5726,7 @@
         <v>71</v>
       </c>
       <c r="B72" s="13" t="s">
-        <v>798</v>
+        <v>795</v>
       </c>
       <c r="C72" s="11" t="s">
         <v>640</v>
@@ -5748,7 +5752,7 @@
         <v>72</v>
       </c>
       <c r="B73" s="13" t="s">
-        <v>798</v>
+        <v>795</v>
       </c>
       <c r="C73" s="11" t="s">
         <v>641</v>
@@ -5777,7 +5781,7 @@
         <v>73</v>
       </c>
       <c r="B74" s="13" t="s">
-        <v>798</v>
+        <v>795</v>
       </c>
       <c r="C74" s="11" t="s">
         <v>642</v>
@@ -5806,7 +5810,7 @@
         <v>74</v>
       </c>
       <c r="B75" s="13" t="s">
-        <v>798</v>
+        <v>795</v>
       </c>
       <c r="C75" s="11" t="s">
         <v>643</v>
@@ -5832,7 +5836,7 @@
         <v>75</v>
       </c>
       <c r="B76" s="13" t="s">
-        <v>798</v>
+        <v>795</v>
       </c>
       <c r="C76" s="11" t="s">
         <v>644</v>
@@ -5861,7 +5865,7 @@
         <v>76</v>
       </c>
       <c r="B77" s="13" t="s">
-        <v>798</v>
+        <v>795</v>
       </c>
       <c r="C77" s="11" t="s">
         <v>645</v>
@@ -5890,7 +5894,7 @@
         <v>77</v>
       </c>
       <c r="B78" s="13" t="s">
-        <v>798</v>
+        <v>795</v>
       </c>
       <c r="C78" s="11" t="s">
         <v>646</v>
@@ -5916,7 +5920,7 @@
         <v>78</v>
       </c>
       <c r="B79" s="13" t="s">
-        <v>798</v>
+        <v>795</v>
       </c>
       <c r="C79" s="11" t="s">
         <v>647</v>
@@ -5945,7 +5949,7 @@
         <v>79</v>
       </c>
       <c r="B80" s="13" t="s">
-        <v>798</v>
+        <v>795</v>
       </c>
       <c r="C80" s="11" t="s">
         <v>648</v>
@@ -5968,7 +5972,7 @@
         <v>80</v>
       </c>
       <c r="B81" s="13" t="s">
-        <v>798</v>
+        <v>795</v>
       </c>
       <c r="C81" s="16" t="s">
         <v>649</v>
@@ -5994,7 +5998,7 @@
         <v>81</v>
       </c>
       <c r="B82" s="13" t="s">
-        <v>799</v>
+        <v>796</v>
       </c>
       <c r="C82" s="14" t="s">
         <v>91</v>
@@ -6020,7 +6024,7 @@
         <v>82</v>
       </c>
       <c r="B83" s="13" t="s">
-        <v>799</v>
+        <v>796</v>
       </c>
       <c r="C83" s="11" t="s">
         <v>92</v>
@@ -6046,7 +6050,7 @@
         <v>83</v>
       </c>
       <c r="B84" s="13" t="s">
-        <v>799</v>
+        <v>796</v>
       </c>
       <c r="C84" s="11" t="s">
         <v>93</v>
@@ -6072,7 +6076,7 @@
         <v>84</v>
       </c>
       <c r="B85" s="13" t="s">
-        <v>799</v>
+        <v>796</v>
       </c>
       <c r="C85" s="11" t="s">
         <v>650</v>
@@ -6101,7 +6105,7 @@
         <v>85</v>
       </c>
       <c r="B86" s="13" t="s">
-        <v>799</v>
+        <v>796</v>
       </c>
       <c r="C86" s="11" t="s">
         <v>651</v>
@@ -6127,7 +6131,7 @@
         <v>86</v>
       </c>
       <c r="B87" s="13" t="s">
-        <v>799</v>
+        <v>796</v>
       </c>
       <c r="C87" s="11" t="s">
         <v>652</v>
@@ -6156,7 +6160,7 @@
         <v>87</v>
       </c>
       <c r="B88" s="13" t="s">
-        <v>799</v>
+        <v>796</v>
       </c>
       <c r="C88" s="11" t="s">
         <v>653</v>
@@ -6182,7 +6186,7 @@
         <v>88</v>
       </c>
       <c r="B89" s="13" t="s">
-        <v>799</v>
+        <v>796</v>
       </c>
       <c r="C89" s="11" t="s">
         <v>654</v>
@@ -6211,7 +6215,7 @@
         <v>89</v>
       </c>
       <c r="B90" s="13" t="s">
-        <v>799</v>
+        <v>796</v>
       </c>
       <c r="C90" s="11" t="s">
         <v>655</v>
@@ -6237,7 +6241,7 @@
         <v>90</v>
       </c>
       <c r="B91" s="13" t="s">
-        <v>799</v>
+        <v>796</v>
       </c>
       <c r="C91" s="11" t="s">
         <v>656</v>
@@ -6255,7 +6259,7 @@
         <v>313</v>
       </c>
       <c r="I91" t="s">
-        <v>766</v>
+        <v>800</v>
       </c>
     </row>
     <row r="92" spans="1:9">
@@ -6263,7 +6267,7 @@
         <v>91</v>
       </c>
       <c r="B92" s="13" t="s">
-        <v>799</v>
+        <v>796</v>
       </c>
       <c r="C92" s="11" t="s">
         <v>657</v>
@@ -6284,7 +6288,7 @@
         <v>309</v>
       </c>
       <c r="I92" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
     </row>
     <row r="93" spans="1:9">
@@ -6292,7 +6296,7 @@
         <v>92</v>
       </c>
       <c r="B93" s="13" t="s">
-        <v>799</v>
+        <v>796</v>
       </c>
       <c r="C93" s="11" t="s">
         <v>658</v>
@@ -6310,7 +6314,7 @@
         <v>340</v>
       </c>
       <c r="I93" t="s">
-        <v>768</v>
+        <v>801</v>
       </c>
     </row>
     <row r="94" spans="1:9">
@@ -6318,7 +6322,7 @@
         <v>93</v>
       </c>
       <c r="B94" s="13" t="s">
-        <v>799</v>
+        <v>796</v>
       </c>
       <c r="C94" s="16" t="s">
         <v>659</v>
@@ -6333,7 +6337,7 @@
         <v>456</v>
       </c>
       <c r="I94" t="s">
-        <v>769</v>
+        <v>802</v>
       </c>
     </row>
     <row r="95" spans="1:9">
@@ -6341,7 +6345,7 @@
         <v>94</v>
       </c>
       <c r="B95" s="13" t="s">
-        <v>800</v>
+        <v>797</v>
       </c>
       <c r="C95" s="14" t="s">
         <v>104</v>
@@ -6356,7 +6360,7 @@
         <v>457</v>
       </c>
       <c r="I95" t="s">
-        <v>770</v>
+        <v>767</v>
       </c>
     </row>
     <row r="96" spans="1:9">
@@ -6364,7 +6368,7 @@
         <v>95</v>
       </c>
       <c r="B96" s="13" t="s">
-        <v>800</v>
+        <v>797</v>
       </c>
       <c r="C96" s="11" t="s">
         <v>105</v>
@@ -6382,7 +6386,7 @@
         <v>301</v>
       </c>
       <c r="I96" t="s">
-        <v>771</v>
+        <v>768</v>
       </c>
     </row>
     <row r="97" spans="1:9">
@@ -6390,7 +6394,7 @@
         <v>96</v>
       </c>
       <c r="B97" s="13" t="s">
-        <v>800</v>
+        <v>797</v>
       </c>
       <c r="C97" s="11" t="s">
         <v>106</v>
@@ -6408,7 +6412,7 @@
         <v>341</v>
       </c>
       <c r="I97" t="s">
-        <v>772</v>
+        <v>769</v>
       </c>
     </row>
     <row r="98" spans="1:9">
@@ -6416,7 +6420,7 @@
         <v>97</v>
       </c>
       <c r="B98" s="13" t="s">
-        <v>800</v>
+        <v>797</v>
       </c>
       <c r="C98" s="11" t="s">
         <v>660</v>
@@ -6437,7 +6441,7 @@
         <v>343</v>
       </c>
       <c r="I98" t="s">
-        <v>773</v>
+        <v>770</v>
       </c>
     </row>
     <row r="99" spans="1:9">
@@ -6445,7 +6449,7 @@
         <v>98</v>
       </c>
       <c r="B99" s="13" t="s">
-        <v>800</v>
+        <v>797</v>
       </c>
       <c r="C99" s="11" t="s">
         <v>661</v>
@@ -6466,7 +6470,7 @@
         <v>344</v>
       </c>
       <c r="I99" t="s">
-        <v>774</v>
+        <v>771</v>
       </c>
     </row>
     <row r="100" spans="1:9">
@@ -6474,7 +6478,7 @@
         <v>99</v>
       </c>
       <c r="B100" s="13" t="s">
-        <v>800</v>
+        <v>797</v>
       </c>
       <c r="C100" s="11" t="s">
         <v>662</v>
@@ -6495,7 +6499,7 @@
         <v>346</v>
       </c>
       <c r="I100" t="s">
-        <v>775</v>
+        <v>772</v>
       </c>
     </row>
     <row r="101" spans="1:9">
@@ -6503,7 +6507,7 @@
         <v>100</v>
       </c>
       <c r="B101" s="13" t="s">
-        <v>800</v>
+        <v>797</v>
       </c>
       <c r="C101" s="11" t="s">
         <v>663</v>
@@ -6521,7 +6525,7 @@
         <v>289</v>
       </c>
       <c r="I101" t="s">
-        <v>776</v>
+        <v>773</v>
       </c>
     </row>
     <row r="102" spans="1:9">
@@ -6529,7 +6533,7 @@
         <v>101</v>
       </c>
       <c r="B102" s="13" t="s">
-        <v>800</v>
+        <v>797</v>
       </c>
       <c r="C102" s="11" t="s">
         <v>664</v>
@@ -6550,7 +6554,7 @@
         <v>283</v>
       </c>
       <c r="I102" t="s">
-        <v>777</v>
+        <v>774</v>
       </c>
     </row>
     <row r="103" spans="1:9">
@@ -6558,7 +6562,7 @@
         <v>102</v>
       </c>
       <c r="B103" s="13" t="s">
-        <v>800</v>
+        <v>797</v>
       </c>
       <c r="C103" s="11" t="s">
         <v>665</v>
@@ -6576,7 +6580,7 @@
         <v>347</v>
       </c>
       <c r="I103" t="s">
-        <v>778</v>
+        <v>775</v>
       </c>
     </row>
     <row r="104" spans="1:9">
@@ -6584,7 +6588,7 @@
         <v>103</v>
       </c>
       <c r="B104" s="13" t="s">
-        <v>800</v>
+        <v>797</v>
       </c>
       <c r="C104" s="11" t="s">
         <v>666</v>
@@ -6602,7 +6606,7 @@
         <v>299</v>
       </c>
       <c r="I104" t="s">
-        <v>779</v>
+        <v>776</v>
       </c>
     </row>
     <row r="105" spans="1:9">
@@ -6610,7 +6614,7 @@
         <v>104</v>
       </c>
       <c r="B105" s="13" t="s">
-        <v>800</v>
+        <v>797</v>
       </c>
       <c r="C105" s="11" t="s">
         <v>667</v>
@@ -6631,7 +6635,7 @@
         <v>283</v>
       </c>
       <c r="I105" t="s">
-        <v>780</v>
+        <v>777</v>
       </c>
     </row>
     <row r="106" spans="1:9">
@@ -6639,7 +6643,7 @@
         <v>105</v>
       </c>
       <c r="B106" s="13" t="s">
-        <v>800</v>
+        <v>797</v>
       </c>
       <c r="C106" s="16" t="s">
         <v>668</v>
@@ -6660,7 +6664,7 @@
         <v>350</v>
       </c>
       <c r="I106" t="s">
-        <v>781</v>
+        <v>778</v>
       </c>
     </row>
     <row r="107" spans="1:9">
@@ -6668,7 +6672,7 @@
         <v>106</v>
       </c>
       <c r="B107" s="13" t="s">
-        <v>801</v>
+        <v>798</v>
       </c>
       <c r="C107" s="14" t="s">
         <v>116</v>
@@ -6683,7 +6687,7 @@
         <v>469</v>
       </c>
       <c r="I107" t="s">
-        <v>782</v>
+        <v>779</v>
       </c>
     </row>
     <row r="108" spans="1:9">
@@ -6691,7 +6695,7 @@
         <v>107</v>
       </c>
       <c r="B108" s="13" t="s">
-        <v>801</v>
+        <v>798</v>
       </c>
       <c r="C108" s="11" t="s">
         <v>117</v>
@@ -6709,7 +6713,7 @@
         <v>108</v>
       </c>
       <c r="B109" s="13" t="s">
-        <v>801</v>
+        <v>798</v>
       </c>
       <c r="C109" s="11" t="s">
         <v>118</v>
@@ -6728,7 +6732,7 @@
         <v>109</v>
       </c>
       <c r="B110" s="13" t="s">
-        <v>801</v>
+        <v>798</v>
       </c>
       <c r="C110" s="11" t="s">
         <v>669</v>
@@ -6746,7 +6750,7 @@
         <v>331</v>
       </c>
       <c r="I110" t="s">
-        <v>783</v>
+        <v>780</v>
       </c>
     </row>
     <row r="111" spans="1:9">
@@ -6754,7 +6758,7 @@
         <v>110</v>
       </c>
       <c r="B111" s="13" t="s">
-        <v>801</v>
+        <v>798</v>
       </c>
       <c r="C111" s="11" t="s">
         <v>670</v>
@@ -6772,7 +6776,7 @@
         <v>351</v>
       </c>
       <c r="I111" t="s">
-        <v>784</v>
+        <v>781</v>
       </c>
     </row>
     <row r="112" spans="1:9">
@@ -6780,7 +6784,7 @@
         <v>111</v>
       </c>
       <c r="B112" s="13" t="s">
-        <v>801</v>
+        <v>798</v>
       </c>
       <c r="C112" s="11" t="s">
         <v>671</v>
@@ -6798,7 +6802,7 @@
         <v>339</v>
       </c>
       <c r="I112" t="s">
-        <v>785</v>
+        <v>782</v>
       </c>
     </row>
     <row r="113" spans="1:9">
@@ -6806,7 +6810,7 @@
         <v>112</v>
       </c>
       <c r="B113" s="13" t="s">
-        <v>801</v>
+        <v>798</v>
       </c>
       <c r="C113" s="11" t="s">
         <v>672</v>
@@ -6821,7 +6825,7 @@
         <v>410</v>
       </c>
       <c r="I113" t="s">
-        <v>786</v>
+        <v>783</v>
       </c>
     </row>
     <row r="114" spans="1:9">
@@ -6829,7 +6833,7 @@
         <v>113</v>
       </c>
       <c r="B114" s="13" t="s">
-        <v>801</v>
+        <v>798</v>
       </c>
       <c r="C114" s="11" t="s">
         <v>673</v>
@@ -6847,7 +6851,7 @@
         <v>352</v>
       </c>
       <c r="I114" t="s">
-        <v>787</v>
+        <v>784</v>
       </c>
     </row>
     <row r="115" spans="1:9">
@@ -6855,7 +6859,7 @@
         <v>114</v>
       </c>
       <c r="B115" s="13" t="s">
-        <v>801</v>
+        <v>798</v>
       </c>
       <c r="C115" s="11" t="s">
         <v>674</v>
@@ -6873,7 +6877,7 @@
         <v>309</v>
       </c>
       <c r="I115" t="s">
-        <v>788</v>
+        <v>785</v>
       </c>
     </row>
     <row r="116" spans="1:9">
@@ -6881,7 +6885,7 @@
         <v>115</v>
       </c>
       <c r="B116" s="13" t="s">
-        <v>801</v>
+        <v>798</v>
       </c>
       <c r="C116" s="11" t="s">
         <v>675</v>
@@ -6899,7 +6903,7 @@
         <v>353</v>
       </c>
       <c r="I116" t="s">
-        <v>789</v>
+        <v>786</v>
       </c>
     </row>
     <row r="117" spans="1:9">
@@ -6907,7 +6911,7 @@
         <v>116</v>
       </c>
       <c r="B117" s="13" t="s">
-        <v>801</v>
+        <v>798</v>
       </c>
       <c r="C117" s="11" t="s">
         <v>676</v>
@@ -6925,7 +6929,7 @@
         <v>354</v>
       </c>
       <c r="I117" t="s">
-        <v>790</v>
+        <v>787</v>
       </c>
     </row>
     <row r="118" spans="1:9">
@@ -6933,7 +6937,7 @@
         <v>117</v>
       </c>
       <c r="B118" s="13" t="s">
-        <v>801</v>
+        <v>798</v>
       </c>
       <c r="C118" s="11" t="s">
         <v>677</v>
@@ -6951,7 +6955,7 @@
         <v>344</v>
       </c>
       <c r="I118" t="s">
-        <v>791</v>
+        <v>788</v>
       </c>
     </row>
     <row r="119" spans="1:9">
@@ -6959,7 +6963,7 @@
         <v>118</v>
       </c>
       <c r="B119" s="13" t="s">
-        <v>801</v>
+        <v>798</v>
       </c>
       <c r="C119" s="16" t="s">
         <v>678</v>
@@ -6974,7 +6978,7 @@
         <v>357</v>
       </c>
       <c r="I119" t="s">
-        <v>792</v>
+        <v>789</v>
       </c>
     </row>
     <row r="120" spans="1:9">
@@ -6982,7 +6986,7 @@
         <v>119</v>
       </c>
       <c r="B120" s="13" t="s">
-        <v>801</v>
+        <v>798</v>
       </c>
       <c r="C120" s="11" t="s">
         <v>679</v>
